--- a/results/mp/deberta/corona/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
@@ -100,15 +100,15 @@
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -118,10 +118,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>help</t>
@@ -1180,25 +1180,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6550218340611353</v>
+        <v>0.6453900709219859</v>
       </c>
       <c r="L19">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="M19">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1206,25 +1206,25 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6453900709219859</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L20">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1232,25 +1232,25 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6304347826086957</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1336,25 +1336,25 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5562310030395137</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="L25">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>146</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1362,25 +1362,25 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5402298850574713</v>
+        <v>0.538235294117647</v>
       </c>
       <c r="L26">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="N26">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="10:17">
